--- a/biology/Histoire de la zoologie et de la botanique/John_Alexander_Moore/John_Alexander_Moore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Alexander_Moore/John_Alexander_Moore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Alexander Moore est un herpétologiste américain, né le 27 juin 1915 à Charleston, Virginie-Occidentale et mort le 26 mai 2002 à Riverside, Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son baccalauréat ès arts à l’université Columbia en 1936. Assistant au département de zoologie de cette institution, il obtient son maîtrise ès arts en 1939. Jusqu’en 1943, il enseigne la zoologie au Brooklyn College et au Queens College et obtient son doctorat en 1940.
 De 1942, il travaille au American Museum of Natural History tout en enseignant la biologie au Barnard College (de 1943 à 1968 et en occupant la chaire de zoologie à l’université Columbia. Il passe un an en Australie en 1952-1953.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Courte biographie Some Biogeographers, Evolutionists and Ecologists : Chrono-Biographical Sketches
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie                    </t>
